--- a/biology/Botanique/Verveine_bleue/Verveine_bleue.xlsx
+++ b/biology/Botanique/Verveine_bleue/Verveine_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stachytarpheta jamaicensis
 La verveine bleue (Stachytarpheta jamaicensis) est une plante herbacée vivace ou un sous-arbrisseau de la famille des Verbénacées originaire d'Amérique.
@@ -514,13 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aspect général
-Il s'agit d'une plante annuelle pouvant atteindre 1 m de haut, érigée ou subprostrée. Les variétés arbustives peuvent dépasser 2 m.
-Feuilles
-Les feuilles ovales ou oblongues atteignent 5 cm de long et 2 cm de large, elles sont grossièrement dentées, en coin à leur base.
-Fleurs
-Les fleurs bleues ou violettes atteignent 4 mm de long, elles naissent dans les dépressions de l'axe qui porte des bractées appressées serrées. L'épi atteint 30 cm de long.
-Fruits</t>
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une plante annuelle pouvant atteindre 1 m de haut, érigée ou subprostrée. Les variétés arbustives peuvent dépasser 2 m.
+</t>
         </is>
       </c>
     </row>
@@ -545,10 +558,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles ovales ou oblongues atteignent 5 cm de long et 2 cm de large, elles sont grossièrement dentées, en coin à leur base.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Verveine_bleue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verveine_bleue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs bleues ou violettes atteignent 4 mm de long, elles naissent dans les dépressions de l'axe qui porte des bractées appressées serrées. L'épi atteint 30 cm de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Verveine_bleue</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verveine_bleue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce s'est naturalisée dans les zones tropicales d'Afrique et d'Asie. En Afrique de l'est, c'est une mauvaise herbe des plantations côtières de cocotiers (référence 2).
 Elle est utilisée en tisane à la fois purgative et sédative.
@@ -556,31 +645,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Verveine_bleue</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Verveine_bleue</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Abena jamaicensis (L.) Hitchc.
 Stachytarpheta bogoriensis Zoll. &amp; Moritzi
@@ -598,57 +689,61 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Verveine_bleue</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Verveine_bleue</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Verveine_bleue</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Verveine_bleue</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale, Colombie, Venezuela, Antilles, Nouvelle-Calédonie
 </t>
